--- a/Code/Results/Cases/Case_1_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_166/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.068422981020159</v>
+        <v>7.257450056250921</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.593872182620022</v>
+        <v>2.795147031779273</v>
       </c>
       <c r="E2">
-        <v>6.068123620976184</v>
+        <v>10.83537105113994</v>
       </c>
       <c r="F2">
-        <v>26.96045691883272</v>
+        <v>21.60762377134271</v>
       </c>
       <c r="G2">
-        <v>2.002921829026391</v>
+        <v>3.570010303265964</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.19016604677246</v>
+        <v>17.4944546962406</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>25.83926717180782</v>
+        <v>16.86830180225451</v>
       </c>
       <c r="N2">
-        <v>14.48470200559094</v>
+        <v>16.87520808968837</v>
       </c>
       <c r="O2">
-        <v>20.80133651142406</v>
+        <v>18.54145570389145</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.50721046445025</v>
+        <v>7.059030704364075</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.556431830772984</v>
+        <v>2.802104594502937</v>
       </c>
       <c r="E3">
-        <v>6.209063098376653</v>
+        <v>10.95337658070012</v>
       </c>
       <c r="F3">
-        <v>25.11455955801644</v>
+        <v>21.1431742536105</v>
       </c>
       <c r="G3">
-        <v>2.010870515144258</v>
+        <v>3.572982899121306</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.19523168690986</v>
+        <v>17.54173133322975</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>24.15375422629665</v>
+        <v>16.23353069052102</v>
       </c>
       <c r="N3">
-        <v>14.23276281367646</v>
+        <v>16.82681263313744</v>
       </c>
       <c r="O3">
-        <v>19.42598446707297</v>
+        <v>18.26382946549023</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.142305163545</v>
+        <v>6.934755501531755</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.544375968704109</v>
+        <v>2.806522493536974</v>
       </c>
       <c r="E4">
-        <v>6.317398695552362</v>
+        <v>11.03054916534537</v>
       </c>
       <c r="F4">
-        <v>24.00560094171243</v>
+        <v>20.8606604217961</v>
       </c>
       <c r="G4">
-        <v>2.01588072693653</v>
+        <v>3.574904617068676</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.20635141974</v>
+        <v>17.57457754136478</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>23.06253101987581</v>
+        <v>15.8330711076163</v>
       </c>
       <c r="N4">
-        <v>14.07939462655755</v>
+        <v>16.79910849912733</v>
       </c>
       <c r="O4">
-        <v>18.62555176602949</v>
+        <v>18.09766987823232</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.988506712628372</v>
+        <v>6.883567754431458</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.552449807222255</v>
+        <v>2.808359771940897</v>
       </c>
       <c r="E5">
-        <v>6.366431539436745</v>
+        <v>11.06317610185952</v>
       </c>
       <c r="F5">
-        <v>23.54439525405531</v>
+        <v>20.74638941896509</v>
       </c>
       <c r="G5">
-        <v>2.01795657262767</v>
+        <v>3.575712093469121</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.21286057700592</v>
+        <v>17.58892312291418</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>22.60361357364279</v>
+        <v>15.66743349923294</v>
       </c>
       <c r="N5">
-        <v>14.01729768555565</v>
+        <v>16.78833308416154</v>
       </c>
       <c r="O5">
-        <v>18.29400944912569</v>
+        <v>18.03113212615506</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.962661301532635</v>
+        <v>6.875037316149321</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.553790900651906</v>
+        <v>2.808667089689541</v>
       </c>
       <c r="E6">
-        <v>6.374852025877217</v>
+        <v>11.068664742792</v>
       </c>
       <c r="F6">
-        <v>23.46725962113808</v>
+        <v>20.72747197739895</v>
       </c>
       <c r="G6">
-        <v>2.018303370342185</v>
+        <v>3.57584764819337</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.214059787486</v>
+        <v>17.59136321535756</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>22.52654913160105</v>
+        <v>15.63978938026638</v>
       </c>
       <c r="N6">
-        <v>14.00701283651952</v>
+        <v>16.78657513773711</v>
       </c>
       <c r="O6">
-        <v>18.23864218718294</v>
+        <v>18.02015708596705</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.140251597395975</v>
+        <v>6.934067274620707</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.544484831706447</v>
+        <v>2.806547121795373</v>
       </c>
       <c r="E7">
-        <v>6.318040939934688</v>
+        <v>11.03098442179862</v>
       </c>
       <c r="F7">
-        <v>23.99941822280829</v>
+        <v>20.85911561051615</v>
       </c>
       <c r="G7">
-        <v>2.015908582315757</v>
+        <v>3.574915408227825</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.2064312453061</v>
+        <v>17.574767121516</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>23.0563996205592</v>
+        <v>15.83084682587201</v>
       </c>
       <c r="N7">
-        <v>14.07855544671982</v>
+        <v>16.79896108488262</v>
       </c>
       <c r="O7">
-        <v>18.62110178576988</v>
+        <v>18.09676765616009</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.879139301390079</v>
+        <v>7.18958320541039</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.580922695078299</v>
+        <v>2.797515865353799</v>
       </c>
       <c r="E8">
-        <v>6.111821480927857</v>
+        <v>10.87507574357923</v>
       </c>
       <c r="F8">
-        <v>26.31376090904952</v>
+        <v>21.44704087078534</v>
       </c>
       <c r="G8">
-        <v>2.005636575697245</v>
+        <v>3.571015271512572</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.1902288898086</v>
+        <v>17.50996348332879</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>25.26973793383022</v>
+        <v>16.65179442033955</v>
       </c>
       <c r="N8">
-        <v>14.39759981937257</v>
+        <v>16.85810924070712</v>
       </c>
       <c r="O8">
-        <v>20.29286609635411</v>
+        <v>18.44489239560949</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.16668541790122</v>
+        <v>7.668401922233094</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.675771382264832</v>
+        <v>2.780951803854453</v>
       </c>
       <c r="E9">
-        <v>5.909283280857975</v>
+        <v>10.60711962677258</v>
       </c>
       <c r="F9">
-        <v>30.78397908898128</v>
+        <v>22.61300671985516</v>
       </c>
       <c r="G9">
-        <v>1.986447043237515</v>
+        <v>3.56412909235062</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.22356660335713</v>
+        <v>17.4131586186219</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>29.16776436238992</v>
+        <v>18.16720803414243</v>
       </c>
       <c r="N9">
-        <v>15.0307770672906</v>
+        <v>16.98966247061546</v>
       </c>
       <c r="O9">
-        <v>23.80308731616099</v>
+        <v>19.15760072497103</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.01440063936455</v>
+        <v>8.003153337858365</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.747446743279236</v>
+        <v>2.769464515799487</v>
       </c>
       <c r="E10">
-        <v>5.92454567396887</v>
+        <v>10.43379784381119</v>
       </c>
       <c r="F10">
-        <v>33.82409273595749</v>
+        <v>23.46714987781533</v>
       </c>
       <c r="G10">
-        <v>1.972815195730582</v>
+        <v>3.559528801166555</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.28978879361699</v>
+        <v>17.36045864629023</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>31.76966095989223</v>
+        <v>19.21196392321212</v>
       </c>
       <c r="N10">
-        <v>15.49672930362751</v>
+        <v>17.09525872400825</v>
       </c>
       <c r="O10">
-        <v>26.18633747327745</v>
+        <v>19.69396108870488</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.37883535743703</v>
+        <v>8.151103436173326</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.780731490707671</v>
+        <v>2.76438330812486</v>
       </c>
       <c r="E11">
-        <v>5.975638050142532</v>
+        <v>10.36018232163866</v>
       </c>
       <c r="F11">
-        <v>35.15695736543055</v>
+        <v>23.85310730628982</v>
       </c>
       <c r="G11">
-        <v>1.966686446215005</v>
+        <v>3.557534493357244</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.32937930902134</v>
+        <v>17.34047431257432</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>32.89850629563541</v>
+        <v>19.67046519814816</v>
       </c>
       <c r="N11">
-        <v>15.70810733246575</v>
+        <v>17.14511686432284</v>
       </c>
       <c r="O11">
-        <v>27.23072785399894</v>
+        <v>19.93955160537302</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.51380249318928</v>
+        <v>8.206458867138199</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.793458013823428</v>
+        <v>2.762479688100261</v>
       </c>
       <c r="E12">
-        <v>6.001951981994864</v>
+        <v>10.3330688852239</v>
       </c>
       <c r="F12">
-        <v>35.65476361314809</v>
+        <v>23.99872502443833</v>
       </c>
       <c r="G12">
-        <v>1.964373398853365</v>
+        <v>3.556793358513465</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.34576280352276</v>
+        <v>17.33347929788431</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>33.31829070246695</v>
+        <v>19.84154657403322</v>
       </c>
       <c r="N12">
-        <v>15.78800723838587</v>
+        <v>17.1642479815489</v>
       </c>
       <c r="O12">
-        <v>27.62075154716972</v>
+        <v>20.03268373712908</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.48486974049995</v>
+        <v>8.194567592293927</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.790711252989532</v>
+        <v>2.762888757821873</v>
       </c>
       <c r="E13">
-        <v>5.995966207711388</v>
+        <v>10.3388741228056</v>
       </c>
       <c r="F13">
-        <v>35.54785493596756</v>
+        <v>23.96738996627508</v>
       </c>
       <c r="G13">
-        <v>1.9648712542855</v>
+        <v>3.556952350860165</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.34217197673026</v>
+        <v>17.33496035002617</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>33.22822110728019</v>
+        <v>19.80481616649417</v>
       </c>
       <c r="N13">
-        <v>15.77080670064604</v>
+        <v>17.16011677223656</v>
       </c>
       <c r="O13">
-        <v>27.53699160909856</v>
+        <v>20.01262170392893</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.3899999640111</v>
+        <v>8.15567124517276</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.781775902339171</v>
+        <v>2.764226286238585</v>
       </c>
       <c r="E14">
-        <v>5.977660111565329</v>
+        <v>10.35793632188978</v>
       </c>
       <c r="F14">
-        <v>35.19804910224779</v>
+        <v>23.86509900212709</v>
       </c>
       <c r="G14">
-        <v>1.96649601071766</v>
+        <v>3.557473238306331</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.3306991353304</v>
+        <v>17.33988735878107</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>32.93319504783566</v>
+        <v>19.68459182969203</v>
       </c>
       <c r="N14">
-        <v>15.7146839696877</v>
+        <v>17.14668582829338</v>
       </c>
       <c r="O14">
-        <v>27.26292328330843</v>
+        <v>19.94721153851029</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.3314944430939</v>
+        <v>8.13175751862167</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.776319471654365</v>
+        <v>2.765048226512727</v>
       </c>
       <c r="E15">
-        <v>5.967370984136429</v>
+        <v>10.36971219729183</v>
       </c>
       <c r="F15">
-        <v>34.98289083004739</v>
+        <v>23.80236837279156</v>
       </c>
       <c r="G15">
-        <v>1.967492150427267</v>
+        <v>3.557794126327211</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.32385376299556</v>
+        <v>17.3429798327976</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>32.75148835115002</v>
+        <v>19.610616134693</v>
       </c>
       <c r="N15">
-        <v>15.68028665749462</v>
+        <v>17.1384913319563</v>
       </c>
       <c r="O15">
-        <v>27.0943449821912</v>
+        <v>19.90716030994328</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.9901583929111</v>
+        <v>7.993393162652946</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.745287189834204</v>
+        <v>2.769799469810113</v>
       </c>
       <c r="E16">
-        <v>5.922150017267517</v>
+        <v>10.43871496335043</v>
       </c>
       <c r="F16">
-        <v>33.73600200687522</v>
+        <v>23.44186028216751</v>
       </c>
       <c r="G16">
-        <v>1.973216962471132</v>
+        <v>3.559661106681892</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.28739456050931</v>
+        <v>17.36184485828815</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>31.6948019464401</v>
+        <v>19.18165072167082</v>
       </c>
       <c r="N16">
-        <v>15.48289823660636</v>
+        <v>17.09203609852296</v>
       </c>
       <c r="O16">
-        <v>26.1173049332763</v>
+        <v>19.67793493632065</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.7753385084753</v>
+        <v>7.907366898113716</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.726440150606432</v>
+        <v>2.772751018122636</v>
       </c>
       <c r="E17">
-        <v>5.906184336653145</v>
+        <v>10.48239308100264</v>
       </c>
       <c r="F17">
-        <v>32.95843242212245</v>
+        <v>23.2199164620499</v>
       </c>
       <c r="G17">
-        <v>1.976745713767379</v>
+        <v>3.560831579768865</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.26747448808645</v>
+        <v>17.37443898633338</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>31.03265972879289</v>
+        <v>18.91410073208852</v>
       </c>
       <c r="N17">
-        <v>15.36161279699267</v>
+        <v>17.06399615809472</v>
       </c>
       <c r="O17">
-        <v>25.50790888809931</v>
+        <v>19.53765171397449</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.64978393582686</v>
+        <v>7.857481842068885</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.71566206828203</v>
+        <v>2.774462278345906</v>
       </c>
       <c r="E18">
-        <v>5.901124593102929</v>
+        <v>10.50800709405194</v>
       </c>
       <c r="F18">
-        <v>32.50645982536681</v>
+        <v>23.09202497793401</v>
       </c>
       <c r="G18">
-        <v>1.978782351149784</v>
+        <v>3.561514070512552</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.25690624502099</v>
+        <v>17.38205834436223</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>30.64664497637991</v>
+        <v>18.75864191632025</v>
       </c>
       <c r="N18">
-        <v>15.29180083250478</v>
+        <v>17.04804048905712</v>
       </c>
       <c r="O18">
-        <v>25.15364076862031</v>
+        <v>19.45712057448493</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.60693021791446</v>
+        <v>7.840523575984578</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.712022797899948</v>
+        <v>2.775044026248953</v>
       </c>
       <c r="E19">
-        <v>5.900099296807172</v>
+        <v>10.51676364554439</v>
       </c>
       <c r="F19">
-        <v>32.35260849107765</v>
+        <v>23.04868782345994</v>
       </c>
       <c r="G19">
-        <v>1.979473198503218</v>
+        <v>3.561746744022565</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.25347980005295</v>
+        <v>17.38470265713886</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>30.51505394824229</v>
+        <v>18.70574072352123</v>
       </c>
       <c r="N19">
-        <v>15.2681566993726</v>
+        <v>17.0426680755098</v>
       </c>
       <c r="O19">
-        <v>25.03303874210842</v>
+        <v>19.42988392421898</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.79841294053798</v>
+        <v>7.916566817258391</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.728439843231041</v>
+        <v>2.772435414228762</v>
       </c>
       <c r="E20">
-        <v>5.907452386121366</v>
+        <v>10.47769252186443</v>
       </c>
       <c r="F20">
-        <v>33.04169418832596</v>
+        <v>23.24356831884245</v>
       </c>
       <c r="G20">
-        <v>1.97636936664515</v>
+        <v>3.560706022555011</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.26950275461398</v>
+        <v>17.37305945892282</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>31.10367946247785</v>
+        <v>18.94274550917121</v>
       </c>
       <c r="N20">
-        <v>15.37452964636633</v>
+        <v>17.06696331871938</v>
       </c>
       <c r="O20">
-        <v>25.57316751001019</v>
+        <v>19.55256966431277</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.41794781982264</v>
+        <v>8.167114585682809</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.784396895131833</v>
+        <v>2.763832866663671</v>
       </c>
       <c r="E21">
-        <v>5.982843560003355</v>
+        <v>10.35231648794679</v>
       </c>
       <c r="F21">
-        <v>35.30098089822666</v>
+        <v>23.89516013168898</v>
       </c>
       <c r="G21">
-        <v>1.966018591795652</v>
+        <v>3.55731985993268</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.33403099117641</v>
+        <v>17.33842464508706</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>33.02005827632625</v>
+        <v>19.7199746192274</v>
       </c>
       <c r="N21">
-        <v>15.73117295414309</v>
+        <v>17.15062410160538</v>
       </c>
       <c r="O21">
-        <v>27.34356991246619</v>
+        <v>19.96642126165341</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.80515832783281</v>
+        <v>8.326937589751923</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.821695504153338</v>
+        <v>2.758330116819894</v>
       </c>
       <c r="E22">
-        <v>6.072931837562604</v>
+        <v>10.27482990540175</v>
       </c>
       <c r="F22">
-        <v>36.73738056512399</v>
+        <v>24.3178204984444</v>
       </c>
       <c r="G22">
-        <v>1.959297649186118</v>
+        <v>3.555188758095162</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.38432708514478</v>
+        <v>17.31912586320057</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>34.22783565416429</v>
+        <v>20.21306628517496</v>
       </c>
       <c r="N22">
-        <v>15.96339340731772</v>
+        <v>17.20675851358769</v>
       </c>
       <c r="O22">
-        <v>28.46892160439485</v>
+        <v>20.23762529568764</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.60011113382676</v>
+        <v>8.242010627431778</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.80171272924934</v>
+        <v>2.761256182693748</v>
       </c>
       <c r="E23">
-        <v>6.020938190092387</v>
+        <v>10.31577457722704</v>
       </c>
       <c r="F23">
-        <v>35.97431756989806</v>
+        <v>24.09258199600781</v>
       </c>
       <c r="G23">
-        <v>1.962881677783414</v>
+        <v>3.556318695623742</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.35673027464146</v>
+        <v>17.3291210227423</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>33.58724157921954</v>
+        <v>19.95129409860804</v>
       </c>
       <c r="N23">
-        <v>15.83955111663353</v>
+        <v>17.17666890286031</v>
       </c>
       <c r="O23">
-        <v>27.87110924951948</v>
+        <v>20.09284346498259</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.78798738141592</v>
+        <v>7.912408861456356</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.727535605426084</v>
+        <v>2.77257805393569</v>
       </c>
       <c r="E24">
-        <v>5.906866319073938</v>
+        <v>10.47981607905254</v>
       </c>
       <c r="F24">
-        <v>33.00406694386513</v>
+        <v>23.23287621457531</v>
       </c>
       <c r="G24">
-        <v>1.976539488341646</v>
+        <v>3.560762757155453</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.26858302394353</v>
+        <v>17.3736819632107</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>31.07158808909237</v>
+        <v>18.92980030580888</v>
       </c>
       <c r="N24">
-        <v>15.36869019377656</v>
+        <v>17.06562135102925</v>
       </c>
       <c r="O24">
-        <v>25.54367631017042</v>
+        <v>19.54582487908646</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.835651630323325</v>
+        <v>7.541628136734456</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.649835711934045</v>
+        <v>2.785311818096341</v>
       </c>
       <c r="E25">
-        <v>5.938264264929352</v>
+        <v>10.6755129957111</v>
       </c>
       <c r="F25">
-        <v>29.61836610267515</v>
+        <v>22.29728869040883</v>
       </c>
       <c r="G25">
-        <v>1.991547418789056</v>
+        <v>3.565910985471263</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.20736113123366</v>
+        <v>17.43610868257541</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>28.1598805074708</v>
+        <v>17.76858941429932</v>
       </c>
       <c r="N25">
-        <v>14.85908442686535</v>
+        <v>16.95246244097758</v>
       </c>
       <c r="O25">
-        <v>22.88866178707833</v>
+        <v>18.96215410841775</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_166/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_166/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.257450056250921</v>
+        <v>9.06842298102022</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.795147031779273</v>
+        <v>1.593872182619837</v>
       </c>
       <c r="E2">
-        <v>10.83537105113994</v>
+        <v>6.068123620976163</v>
       </c>
       <c r="F2">
-        <v>21.60762377134271</v>
+        <v>26.96045691883279</v>
       </c>
       <c r="G2">
-        <v>3.570010303265964</v>
+        <v>2.002921829026389</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.4944546962406</v>
+        <v>13.19016604677242</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.86830180225451</v>
+        <v>25.83926717180784</v>
       </c>
       <c r="N2">
-        <v>16.87520808968837</v>
+        <v>14.48470200559094</v>
       </c>
       <c r="O2">
-        <v>18.54145570389145</v>
+        <v>20.8013365114241</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.059030704364075</v>
+        <v>8.507210464450191</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.802104594502937</v>
+        <v>1.556431830772993</v>
       </c>
       <c r="E3">
-        <v>10.95337658070012</v>
+        <v>6.20906309837661</v>
       </c>
       <c r="F3">
-        <v>21.1431742536105</v>
+        <v>25.11455955801644</v>
       </c>
       <c r="G3">
-        <v>3.572982899121306</v>
+        <v>2.01087051514439</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.54173133322975</v>
+        <v>13.19523168690991</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.23353069052102</v>
+        <v>24.15375422629663</v>
       </c>
       <c r="N3">
-        <v>16.82681263313744</v>
+        <v>14.23276281367648</v>
       </c>
       <c r="O3">
-        <v>18.26382946549023</v>
+        <v>19.42598446707297</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.934755501531755</v>
+        <v>8.142305163545027</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.806522493536974</v>
+        <v>1.544375968704241</v>
       </c>
       <c r="E4">
-        <v>11.03054916534537</v>
+        <v>6.317398695552407</v>
       </c>
       <c r="F4">
-        <v>20.8606604217961</v>
+        <v>24.00560094171244</v>
       </c>
       <c r="G4">
-        <v>3.574904617068676</v>
+        <v>2.015880726936528</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.57457754136478</v>
+        <v>13.20635141974</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.8330711076163</v>
+        <v>23.06253101987586</v>
       </c>
       <c r="N4">
-        <v>16.79910849912733</v>
+        <v>14.07939462655758</v>
       </c>
       <c r="O4">
-        <v>18.09766987823232</v>
+        <v>18.6255517660295</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.883567754431458</v>
+        <v>7.988506712628382</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.808359771940897</v>
+        <v>1.552449807222252</v>
       </c>
       <c r="E5">
-        <v>11.06317610185952</v>
+        <v>6.366431539436747</v>
       </c>
       <c r="F5">
-        <v>20.74638941896509</v>
+        <v>23.54439525405531</v>
       </c>
       <c r="G5">
-        <v>3.575712093469121</v>
+        <v>2.01795657262767</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.58892312291418</v>
+        <v>13.21286057700591</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.66743349923294</v>
+        <v>22.60361357364275</v>
       </c>
       <c r="N5">
-        <v>16.78833308416154</v>
+        <v>14.01729768555565</v>
       </c>
       <c r="O5">
-        <v>18.03113212615506</v>
+        <v>18.29400944912569</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.875037316149321</v>
+        <v>7.962661301532628</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.808667089689541</v>
+        <v>1.55379090065184</v>
       </c>
       <c r="E6">
-        <v>11.068664742792</v>
+        <v>6.374852025877228</v>
       </c>
       <c r="F6">
-        <v>20.72747197739895</v>
+        <v>23.46725962113806</v>
       </c>
       <c r="G6">
-        <v>3.57584764819337</v>
+        <v>2.018303370342318</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.59136321535756</v>
+        <v>13.214059787486</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.63978938026638</v>
+        <v>22.52654913160109</v>
       </c>
       <c r="N6">
-        <v>16.78657513773711</v>
+        <v>14.00701283651952</v>
       </c>
       <c r="O6">
-        <v>18.02015708596705</v>
+        <v>18.2386421871829</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.934067274620707</v>
+        <v>8.140251597396011</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.806547121795373</v>
+        <v>1.544484831706382</v>
       </c>
       <c r="E7">
-        <v>11.03098442179862</v>
+        <v>6.31804093993459</v>
       </c>
       <c r="F7">
-        <v>20.85911561051615</v>
+        <v>23.99941822280826</v>
       </c>
       <c r="G7">
-        <v>3.574915408227825</v>
+        <v>2.015908582315623</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.574767121516</v>
+        <v>13.20643124530607</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.83084682587201</v>
+        <v>23.0563996205592</v>
       </c>
       <c r="N7">
-        <v>16.79896108488262</v>
+        <v>14.07855544671982</v>
       </c>
       <c r="O7">
-        <v>18.09676765616009</v>
+        <v>18.62110178576986</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.18958320541039</v>
+        <v>8.879139301390063</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.797515865353799</v>
+        <v>1.580922695078233</v>
       </c>
       <c r="E8">
-        <v>10.87507574357923</v>
+        <v>6.111821480928</v>
       </c>
       <c r="F8">
-        <v>21.44704087078534</v>
+        <v>26.31376090904957</v>
       </c>
       <c r="G8">
-        <v>3.571015271512572</v>
+        <v>2.005636575697111</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.50996348332879</v>
+        <v>13.19022888980861</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.65179442033955</v>
+        <v>25.26973793383026</v>
       </c>
       <c r="N8">
-        <v>16.85810924070712</v>
+        <v>14.39759981937258</v>
       </c>
       <c r="O8">
-        <v>18.44489239560949</v>
+        <v>20.29286609635414</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.668401922233094</v>
+        <v>10.16668541790122</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.780951803854453</v>
+        <v>1.675771382264721</v>
       </c>
       <c r="E9">
-        <v>10.60711962677258</v>
+        <v>5.909283280858023</v>
       </c>
       <c r="F9">
-        <v>22.61300671985516</v>
+        <v>30.78397908898137</v>
       </c>
       <c r="G9">
-        <v>3.56412909235062</v>
+        <v>1.986447043237514</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.4131586186219</v>
+        <v>13.22356660335707</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.16720803414243</v>
+        <v>29.16776436238992</v>
       </c>
       <c r="N9">
-        <v>16.98966247061546</v>
+        <v>15.0307770672906</v>
       </c>
       <c r="O9">
-        <v>19.15760072497103</v>
+        <v>23.80308731616102</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.003153337858365</v>
+        <v>11.01440063936453</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.769464515799487</v>
+        <v>1.747446743279297</v>
       </c>
       <c r="E10">
-        <v>10.43379784381119</v>
+        <v>5.924545673968851</v>
       </c>
       <c r="F10">
-        <v>23.46714987781533</v>
+        <v>33.82409273595753</v>
       </c>
       <c r="G10">
-        <v>3.559528801166555</v>
+        <v>1.972815195730583</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.36045864629023</v>
+        <v>13.28978879361696</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.21196392321212</v>
+        <v>31.76966095989222</v>
       </c>
       <c r="N10">
-        <v>17.09525872400825</v>
+        <v>15.49672930362749</v>
       </c>
       <c r="O10">
-        <v>19.69396108870488</v>
+        <v>26.18633747327747</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.151103436173326</v>
+        <v>11.37883535743699</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.76438330812486</v>
+        <v>1.780731490707743</v>
       </c>
       <c r="E11">
-        <v>10.36018232163866</v>
+        <v>5.975638050142503</v>
       </c>
       <c r="F11">
-        <v>23.85310730628982</v>
+        <v>35.15695736543056</v>
       </c>
       <c r="G11">
-        <v>3.557534493357244</v>
+        <v>1.966686446214737</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.34047431257432</v>
+        <v>13.32937930902129</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.67046519814816</v>
+        <v>32.89850629563542</v>
       </c>
       <c r="N11">
-        <v>17.14511686432284</v>
+        <v>15.70810733246571</v>
       </c>
       <c r="O11">
-        <v>19.93955160537302</v>
+        <v>27.23072785399896</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.206458867138199</v>
+        <v>11.51380249318928</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.762479688100261</v>
+        <v>1.793458013823374</v>
       </c>
       <c r="E12">
-        <v>10.3330688852239</v>
+        <v>6.001951981994873</v>
       </c>
       <c r="F12">
-        <v>23.99872502443833</v>
+        <v>35.65476361314806</v>
       </c>
       <c r="G12">
-        <v>3.556793358513465</v>
+        <v>1.9643733988531</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.33347929788431</v>
+        <v>13.34576280352275</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.84154657403322</v>
+        <v>33.31829070246691</v>
       </c>
       <c r="N12">
-        <v>17.1642479815489</v>
+        <v>15.78800723838586</v>
       </c>
       <c r="O12">
-        <v>20.03268373712908</v>
+        <v>27.6207515471697</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.194567592293927</v>
+        <v>11.48486974049996</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.762888757821873</v>
+        <v>1.79071125298947</v>
       </c>
       <c r="E13">
-        <v>10.3388741228056</v>
+        <v>5.995966207711398</v>
       </c>
       <c r="F13">
-        <v>23.96738996627508</v>
+        <v>35.54785493596759</v>
       </c>
       <c r="G13">
-        <v>3.556952350860165</v>
+        <v>1.964871254285232</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.33496035002617</v>
+        <v>13.34217197673023</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.80481616649417</v>
+        <v>33.2282211072802</v>
       </c>
       <c r="N13">
-        <v>17.16011677223656</v>
+        <v>15.77080670064602</v>
       </c>
       <c r="O13">
-        <v>20.01262170392893</v>
+        <v>27.5369916090986</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.15567124517276</v>
+        <v>11.38999996401105</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.764226286238585</v>
+        <v>1.781775902339171</v>
       </c>
       <c r="E14">
-        <v>10.35793632188978</v>
+        <v>5.977660111565284</v>
       </c>
       <c r="F14">
-        <v>23.86509900212709</v>
+        <v>35.19804910224781</v>
       </c>
       <c r="G14">
-        <v>3.557473238306331</v>
+        <v>1.966496010717397</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.33988735878107</v>
+        <v>13.33069913533038</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.68459182969203</v>
+        <v>32.93319504783563</v>
       </c>
       <c r="N14">
-        <v>17.14668582829338</v>
+        <v>15.71468396968764</v>
       </c>
       <c r="O14">
-        <v>19.94721153851029</v>
+        <v>27.26292328330843</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.13175751862167</v>
+        <v>11.33149444309391</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.765048226512727</v>
+        <v>1.77631947165442</v>
       </c>
       <c r="E15">
-        <v>10.36971219729183</v>
+        <v>5.967370984136477</v>
       </c>
       <c r="F15">
-        <v>23.80236837279156</v>
+        <v>34.98289083004737</v>
       </c>
       <c r="G15">
-        <v>3.557794126327211</v>
+        <v>1.967492150427399</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.3429798327976</v>
+        <v>13.32385376299552</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.610616134693</v>
+        <v>32.75148835115003</v>
       </c>
       <c r="N15">
-        <v>17.1384913319563</v>
+        <v>15.68028665749462</v>
       </c>
       <c r="O15">
-        <v>19.90716030994328</v>
+        <v>27.0943449821912</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.993393162652946</v>
+        <v>10.99015839291105</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.769799469810113</v>
+        <v>1.745287189834203</v>
       </c>
       <c r="E16">
-        <v>10.43871496335043</v>
+        <v>5.922150017267544</v>
       </c>
       <c r="F16">
-        <v>23.44186028216751</v>
+        <v>33.73600200687524</v>
       </c>
       <c r="G16">
-        <v>3.559661106681892</v>
+        <v>1.973216962470733</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.36184485828815</v>
+        <v>13.28739456050935</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.18165072167082</v>
+        <v>31.69480194644008</v>
       </c>
       <c r="N16">
-        <v>17.09203609852296</v>
+        <v>15.48289823660633</v>
       </c>
       <c r="O16">
-        <v>19.67793493632065</v>
+        <v>26.11730493327631</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.907366898113716</v>
+        <v>10.77533850847534</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.772751018122636</v>
+        <v>1.726440150606493</v>
       </c>
       <c r="E17">
-        <v>10.48239308100264</v>
+        <v>5.906184336653149</v>
       </c>
       <c r="F17">
-        <v>23.2199164620499</v>
+        <v>32.95843242212244</v>
       </c>
       <c r="G17">
-        <v>3.560831579768865</v>
+        <v>1.976745713767646</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.37443898633338</v>
+        <v>13.26747448808644</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.91410073208852</v>
+        <v>31.0326597287929</v>
       </c>
       <c r="N17">
-        <v>17.06399615809472</v>
+        <v>15.36161279699269</v>
       </c>
       <c r="O17">
-        <v>19.53765171397449</v>
+        <v>25.50790888809928</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.857481842068885</v>
+        <v>10.64978393582684</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.774462278345906</v>
+        <v>1.715662068282023</v>
       </c>
       <c r="E18">
-        <v>10.50800709405194</v>
+        <v>5.901124593102928</v>
       </c>
       <c r="F18">
-        <v>23.09202497793401</v>
+        <v>32.50645982536678</v>
       </c>
       <c r="G18">
-        <v>3.561514070512552</v>
+        <v>1.978782351149917</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.38205834436223</v>
+        <v>13.25690624502101</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.75864191632025</v>
+        <v>30.64664497637988</v>
       </c>
       <c r="N18">
-        <v>17.04804048905712</v>
+        <v>15.29180083250478</v>
       </c>
       <c r="O18">
-        <v>19.45712057448493</v>
+        <v>25.15364076862027</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.840523575984578</v>
+        <v>10.60693021791447</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.775044026248953</v>
+        <v>1.712022797899934</v>
       </c>
       <c r="E19">
-        <v>10.51676364554439</v>
+        <v>5.900099296807163</v>
       </c>
       <c r="F19">
-        <v>23.04868782345994</v>
+        <v>32.3526084910777</v>
       </c>
       <c r="G19">
-        <v>3.561746744022565</v>
+        <v>1.979473198503218</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.38470265713886</v>
+        <v>13.25347980005297</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.70574072352123</v>
+        <v>30.51505394824238</v>
       </c>
       <c r="N19">
-        <v>17.0426680755098</v>
+        <v>15.26815669937264</v>
       </c>
       <c r="O19">
-        <v>19.42988392421898</v>
+        <v>25.03303874210848</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.916566817258391</v>
+        <v>10.79841294053794</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.772435414228762</v>
+        <v>1.72843984323098</v>
       </c>
       <c r="E20">
-        <v>10.47769252186443</v>
+        <v>5.907452386121327</v>
       </c>
       <c r="F20">
-        <v>23.24356831884245</v>
+        <v>33.04169418832598</v>
       </c>
       <c r="G20">
-        <v>3.560706022555011</v>
+        <v>1.97636936664515</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.37305945892282</v>
+        <v>13.26950275461406</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.94274550917121</v>
+        <v>31.10367946247789</v>
       </c>
       <c r="N20">
-        <v>17.06696331871938</v>
+        <v>15.37452964636632</v>
       </c>
       <c r="O20">
-        <v>19.55256966431277</v>
+        <v>25.5731675100102</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.167114585682809</v>
+        <v>11.41794781982263</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.763832866663671</v>
+        <v>1.784396895131761</v>
       </c>
       <c r="E21">
-        <v>10.35231648794679</v>
+        <v>5.982843560003318</v>
       </c>
       <c r="F21">
-        <v>23.89516013168898</v>
+        <v>35.30098089822665</v>
       </c>
       <c r="G21">
-        <v>3.55731985993268</v>
+        <v>1.966018591795652</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.33842464508706</v>
+        <v>13.3340309911764</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.7199746192274</v>
+        <v>33.02005827632627</v>
       </c>
       <c r="N21">
-        <v>17.15062410160538</v>
+        <v>15.73117295414308</v>
       </c>
       <c r="O21">
-        <v>19.96642126165341</v>
+        <v>27.34356991246617</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.326937589751923</v>
+        <v>11.80515832783283</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.758330116819894</v>
+        <v>1.821695504153453</v>
       </c>
       <c r="E22">
-        <v>10.27482990540175</v>
+        <v>6.072931837562589</v>
       </c>
       <c r="F22">
-        <v>24.3178204984444</v>
+        <v>36.73738056512402</v>
       </c>
       <c r="G22">
-        <v>3.555188758095162</v>
+        <v>1.959297649186117</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.31912586320057</v>
+        <v>13.38432708514474</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.21306628517496</v>
+        <v>34.22783565416437</v>
       </c>
       <c r="N22">
-        <v>17.20675851358769</v>
+        <v>15.96339340731773</v>
       </c>
       <c r="O22">
-        <v>20.23762529568764</v>
+        <v>28.46892160439491</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.242010627431778</v>
+        <v>11.60011113382673</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.761256182693748</v>
+        <v>1.801712729249204</v>
       </c>
       <c r="E23">
-        <v>10.31577457722704</v>
+        <v>6.020938190092358</v>
       </c>
       <c r="F23">
-        <v>24.09258199600781</v>
+        <v>35.97431756989817</v>
       </c>
       <c r="G23">
-        <v>3.556318695623742</v>
+        <v>1.96288167778328</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.3291210227423</v>
+        <v>13.35673027464147</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.95129409860804</v>
+        <v>33.58724157921959</v>
       </c>
       <c r="N23">
-        <v>17.17666890286031</v>
+        <v>15.83955111663353</v>
       </c>
       <c r="O23">
-        <v>20.09284346498259</v>
+        <v>27.87110924951957</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.912408861456356</v>
+        <v>10.78798738141597</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.77257805393569</v>
+        <v>1.72753560542609</v>
       </c>
       <c r="E24">
-        <v>10.47981607905254</v>
+        <v>5.906866319073969</v>
       </c>
       <c r="F24">
-        <v>23.23287621457531</v>
+        <v>33.00406694386512</v>
       </c>
       <c r="G24">
-        <v>3.560762757155453</v>
+        <v>1.976539488341646</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.3736819632107</v>
+        <v>13.26858302394353</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.92980030580888</v>
+        <v>31.07158808909236</v>
       </c>
       <c r="N24">
-        <v>17.06562135102925</v>
+        <v>15.36869019377658</v>
       </c>
       <c r="O24">
-        <v>19.54582487908646</v>
+        <v>25.5436763101704</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.541628136734456</v>
+        <v>9.835651630323333</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.785311818096341</v>
+        <v>1.649835711933921</v>
       </c>
       <c r="E25">
-        <v>10.6755129957111</v>
+        <v>5.938264264929441</v>
       </c>
       <c r="F25">
-        <v>22.29728869040883</v>
+        <v>29.61836610267528</v>
       </c>
       <c r="G25">
-        <v>3.565910985471263</v>
+        <v>1.991547418788922</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.43610868257541</v>
+        <v>13.2073611312336</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.76858941429932</v>
+        <v>28.15988050747081</v>
       </c>
       <c r="N25">
-        <v>16.95246244097758</v>
+        <v>14.85908442686534</v>
       </c>
       <c r="O25">
-        <v>18.96215410841775</v>
+        <v>22.88866178707844</v>
       </c>
     </row>
   </sheetData>
